--- a/Jupyter/Eurofer/Eurofer_data_1_2.xlsx
+++ b/Jupyter/Eurofer/Eurofer_data_1_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Repos\DatabaseCodes\Jupyter\Eurofer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF196758-A029-49CD-97BC-738FAB602A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCCF451-E084-43B2-B6E4-FE95D72ECF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="852" firstSheet="8" activeTab="23" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="13" activeTab="23" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="Density" sheetId="15" r:id="rId1"/>
@@ -1411,22 +1411,22 @@
     <t>EPFL-500s</t>
   </si>
   <si>
+    <t>FZK-600s</t>
+  </si>
+  <si>
+    <t>FZK-3600s</t>
+  </si>
+  <si>
+    <t>NRG-1000s</t>
+  </si>
+  <si>
+    <t>CEA-9Cr</t>
+  </si>
+  <si>
+    <t>D_C</t>
+  </si>
+  <si>
     <t>D_F</t>
-  </si>
-  <si>
-    <t>D_C</t>
-  </si>
-  <si>
-    <t>FZK-600s</t>
-  </si>
-  <si>
-    <t>FZK-3600s</t>
-  </si>
-  <si>
-    <t>NRG-1000s</t>
-  </si>
-  <si>
-    <t>CEA-9Cr</t>
   </si>
 </sst>
 </file>
@@ -5542,18 +5542,18 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>293</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>373</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>7728</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>473</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>7699</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>573</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>7666</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>673</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>7633</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>773</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>7596</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>873</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>7558</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>71</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -5649,26 +5649,26 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="2"/>
-    <col min="13" max="17" width="12.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="2.7265625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="17" width="12.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>94</v>
       </c>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="Q1" s="59"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5707,7 +5707,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="33.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>424.966886975536</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>650</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>424.172181967271</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>700</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>425.36422432193098</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>725</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>427.74834692559199</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>775</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>441.25827901400203</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>825</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>438.87417535751302</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>850</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>361.39072883819699</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>950</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>295.82778544359201</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1000</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>261.25827674034201</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1050</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>217.54966802092201</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1100</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>192.119198702891</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1150</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>344.70198429559798</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M16" s="14">
         <v>874.36613976211095</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>415.43044961297102</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>65</v>
       </c>
@@ -6195,12 +6195,12 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="13:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M50" s="66" t="s">
         <v>109</v>
       </c>
@@ -6232,38 +6232,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
   <dimension ref="A1:BA26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="12.54296875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="3.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.453125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.1796875" style="2" customWidth="1"/>
-    <col min="40" max="40" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.453125" style="2" customWidth="1"/>
-    <col min="43" max="43" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="32" width="12.5703125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="3.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.42578125" style="2" customWidth="1"/>
+    <col min="43" max="43" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="5" style="2" customWidth="1"/>
-    <col min="46" max="46" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.453125" style="2" customWidth="1"/>
-    <col min="49" max="49" width="5.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.1796875" style="2" customWidth="1"/>
-    <col min="52" max="52" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="12.453125" style="2"/>
+    <col min="46" max="46" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.42578125" style="2" customWidth="1"/>
+    <col min="49" max="49" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.140625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>75</v>
       </c>
@@ -6323,8 +6323,8 @@
       <c r="AZ1" s="59"/>
       <c r="BA1" s="59"/>
     </row>
-    <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:53" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="AZ4" s="13"/>
       <c r="BA4" s="13"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="AZ7" s="13"/>
       <c r="BA7" s="13"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>200</v>
       </c>
@@ -6807,7 +6807,7 @@
       <c r="AZ8" s="13"/>
       <c r="BA8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>250</v>
       </c>
@@ -6866,7 +6866,7 @@
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>300</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>427.45071999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>350</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>410.36381999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>400</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>388.04959000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>450</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>353.96629000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>500</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>310.73838999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>550</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>253.12702999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>600</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>178.52502999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>650</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>81.697839999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>700</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>137.14859437750999</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>15</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="AZ25" s="59"/>
       <c r="BA25" s="59"/>
     </row>
-    <row r="26" spans="1:53" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -7103,69 +7103,69 @@
   <dimension ref="A1:BB52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AV1"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.7265625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.54296875" style="22" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5703125" style="22" customWidth="1"/>
     <col min="32" max="32" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.26953125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.28515625" style="2" customWidth="1"/>
     <col min="39" max="39" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.81640625" style="22" customWidth="1"/>
-    <col min="52" max="52" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.7265625" style="22" customWidth="1"/>
-    <col min="55" max="16384" width="12.54296875" style="2"/>
+    <col min="50" max="50" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.85546875" style="22" customWidth="1"/>
+    <col min="52" max="52" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.7109375" style="22" customWidth="1"/>
+    <col min="55" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="88.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>110</v>
       </c>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="BA1" s="67"/>
     </row>
-    <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -7320,7 +7320,7 @@
       <c r="AZ2"/>
       <c r="BA2"/>
     </row>
-    <row r="3" spans="1:53" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>134</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>18.947368421052602</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>511.72883999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>300</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>476.28519999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>400</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>461.81124999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>500</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>452.56896</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>600</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>445.93817999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>700</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>436.69731999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L10" s="27">
         <v>300.48311667035102</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>427.45071999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L11" s="27">
         <v>300.48311667035102</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>410.36381999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L12" s="27">
         <v>300.48311667035102</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>388.04959000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L13" s="27">
         <v>400.96622412645797</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>353.96629000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L14" s="27">
         <v>400.96622412645797</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>310.73838999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L15" s="27">
         <v>500.48308902761698</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>253.12702999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L16" s="27">
         <v>550.72467961264897</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>178.52502999999999</v>
       </c>
     </row>
-    <row r="17" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N17" s="27">
         <v>500.48308902761698</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>81.697839999999999</v>
       </c>
     </row>
-    <row r="18" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N18" s="27">
         <v>500.48308902761698</v>
       </c>
@@ -8738,7 +8738,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="54"/>
     </row>
-    <row r="19" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N19" s="27">
         <v>500.48308902761698</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>390.55097115375497</v>
       </c>
     </row>
-    <row r="20" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N20" s="27">
         <v>550.72467961264897</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>358.87053013271299</v>
       </c>
     </row>
-    <row r="21" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N21" s="27">
         <v>550.72467961264897</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>349.99999697871698</v>
       </c>
     </row>
-    <row r="22" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N22" s="27">
         <v>600.00002764273404</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>264.46280622190199</v>
       </c>
     </row>
-    <row r="23" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N23" s="27">
         <v>600.00002764273404</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>277.13498263031897</v>
       </c>
     </row>
-    <row r="24" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N24" s="27">
         <v>600.00002764273404</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>298.677643852215</v>
       </c>
     </row>
-    <row r="25" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N25" s="27">
         <v>600.00002764273404</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>304.38018124462297</v>
       </c>
     </row>
-    <row r="26" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N26" s="27">
         <v>651.20778706875603</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>218.84296631754901</v>
       </c>
     </row>
-    <row r="27" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N27" s="27">
         <v>700.48306138488294</v>
       </c>
@@ -8810,27 +8810,27 @@
         <v>152.94763932567699</v>
       </c>
     </row>
-    <row r="28" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
     </row>
-    <row r="29" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
     </row>
-    <row r="30" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
     </row>
-    <row r="31" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
-    <row r="32" spans="14:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="14:53" x14ac:dyDescent="0.25">
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -8841,7 +8841,7 @@
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
     </row>
-    <row r="49" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -8859,7 +8859,7 @@
       <c r="AJ49" s="57"/>
       <c r="AK49" s="57"/>
     </row>
-    <row r="50" spans="1:53" ht="189.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:53" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
         <v>135</v>
       </c>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="BA50" s="67"/>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
         <v>139</v>
       </c>
@@ -8982,13 +8982,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.54296875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="12.453125" style="2"/>
+    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>74</v>
       </c>
@@ -9026,8 +9026,8 @@
       </c>
       <c r="R1" s="59"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>621.67832167832103</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>505.233380480905</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>150</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>475.53041018387501</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>399.15134370579898</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>250</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>282.46110325318199</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>300</v>
       </c>
@@ -9383,7 +9383,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>350</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>495.42626000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>400</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>466.57317999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>450</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>432.49275</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>500</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>389.26197000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>550</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>339.49808999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>600</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>276.65652999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>650</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>199.44013000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>700</v>
       </c>
@@ -9447,15 +9447,15 @@
         <v>105.22734</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
@@ -9489,61 +9489,61 @@
       <selection activeCell="BA52" sqref="BA52:BB52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="2.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="7.81640625" style="19" customWidth="1"/>
-    <col min="29" max="29" width="2.7265625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="7.85546875" style="19" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.7265625" style="22" customWidth="1"/>
+    <col min="32" max="32" width="2.7109375" style="22" customWidth="1"/>
     <col min="33" max="33" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.7265625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.7109375" style="2" customWidth="1"/>
     <col min="40" max="40" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.7265625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="2" customWidth="1"/>
     <col min="42" max="42" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.7265625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="2" customWidth="1"/>
     <col min="44" max="44" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.7265625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="2" customWidth="1"/>
     <col min="46" max="46" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7265625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="8.7109375" style="2" customWidth="1"/>
     <col min="48" max="48" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.7265625" style="2" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" style="2" customWidth="1"/>
     <col min="50" max="50" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.7265625" style="2" customWidth="1"/>
-    <col min="52" max="52" width="2.7265625" style="22" customWidth="1"/>
-    <col min="53" max="54" width="8.7265625" style="19" customWidth="1"/>
-    <col min="55" max="55" width="2.7265625" style="22" customWidth="1"/>
-    <col min="56" max="16384" width="12.54296875" style="2"/>
+    <col min="51" max="51" width="8.7109375" style="2" customWidth="1"/>
+    <col min="52" max="52" width="2.7109375" style="22" customWidth="1"/>
+    <col min="53" max="54" width="8.7109375" style="19" customWidth="1"/>
+    <col min="55" max="55" width="2.7109375" style="22" customWidth="1"/>
+    <col min="56" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="85.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>141</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="BB1" s="67"/>
     </row>
-    <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="O2" s="2"/>
@@ -9670,7 +9670,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>134</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>15.1410808927765</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>634.60653000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>294.697899241779</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>593.93268</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>395.54988422853</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>570.30980999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>494.73728101667899</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>551.91571999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>596.11530974817697</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>534.82883000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>697.45307331914796</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>515.12753999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29">
@@ -10713,7 +10713,7 @@
         <v>495.42626000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29">
@@ -10772,7 +10772,7 @@
         <v>466.57317999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29">
@@ -10806,7 +10806,7 @@
         <v>432.49275</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29">
@@ -10840,7 +10840,7 @@
         <v>389.26197000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29">
@@ -10874,7 +10874,7 @@
         <v>339.49808999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29">
@@ -10908,7 +10908,7 @@
         <v>276.65652999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29">
@@ -10938,7 +10938,7 @@
         <v>199.44013000000001</v>
       </c>
     </row>
-    <row r="17" spans="15:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="15:54" x14ac:dyDescent="0.25">
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29">
@@ -10968,7 +10968,7 @@
         <v>105.22734</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
       <c r="F49" s="68"/>
@@ -10986,7 +10986,7 @@
       <c r="AK49" s="69"/>
       <c r="AL49" s="69"/>
     </row>
-    <row r="50" spans="1:54" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:54" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>144</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="BB50" s="67"/>
     </row>
-    <row r="52" spans="1:54" ht="182.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:54" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA52" s="61" t="s">
         <v>140</v>
       </c>
@@ -11107,12 +11107,12 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.453125" style="1"/>
+    <col min="1" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>75</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -11249,7 +11249,7 @@
       <c r="L6"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>150</v>
       </c>
@@ -11279,7 +11279,7 @@
       <c r="L7"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>200</v>
       </c>
@@ -11309,7 +11309,7 @@
       <c r="L8"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>250</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="L9"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>300</v>
       </c>
@@ -11362,7 +11362,7 @@
       <c r="L10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>350</v>
       </c>
@@ -11375,7 +11375,7 @@
       <c r="L11"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>400</v>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>450</v>
       </c>
@@ -11401,7 +11401,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>500</v>
       </c>
@@ -11414,7 +11414,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>550</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>600</v>
       </c>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>650</v>
       </c>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>700</v>
       </c>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
         <v>17</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
     </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
         <v>75</v>
       </c>
@@ -11511,65 +11511,65 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7265625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="33" customWidth="1"/>
-    <col min="22" max="22" width="11.54296875" style="33" customWidth="1"/>
-    <col min="23" max="23" width="3.7265625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="33" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.7265625" style="34" customWidth="1"/>
-    <col min="35" max="35" width="8.7265625" style="33" customWidth="1"/>
-    <col min="36" max="36" width="10.26953125" style="33" customWidth="1"/>
-    <col min="37" max="37" width="8.7265625" style="33" customWidth="1"/>
-    <col min="38" max="38" width="9.81640625" style="33" customWidth="1"/>
-    <col min="39" max="39" width="8.7265625" style="33" customWidth="1"/>
-    <col min="40" max="40" width="10.26953125" style="33" customWidth="1"/>
-    <col min="41" max="41" width="3.7265625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="34" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="33" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" style="33" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" style="33" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" style="33" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" style="33" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="33" customWidth="1"/>
+    <col min="41" max="41" width="3.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7265625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.7265625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="5.7109375" style="1" customWidth="1"/>
     <col min="51" max="51" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.7265625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="5.7109375" style="1" customWidth="1"/>
     <col min="53" max="53" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="12.54296875" style="1"/>
+    <col min="54" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>145</v>
       </c>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="BA1" s="65"/>
     </row>
-    <row r="3" spans="1:53" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>159</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>20.8445642407906</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>30.5527626689355</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>200.53908355795099</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>29.447235030744501</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>399.64061096136498</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>20.8375208102279</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>500.269541778975</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>23.852596187112301</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>500.269541778975</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>22.8475710614841</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
@@ -12649,7 +12649,7 @@
         <v>23.457285818742101</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27">
@@ -12743,7 +12743,7 @@
         <v>27.497487283831202</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27">
@@ -12829,7 +12829,7 @@
         <v>45.206029690689697</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27">
@@ -12903,7 +12903,7 @@
       <c r="AZ12" s="28"/>
       <c r="BA12" s="28"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27">
@@ -12937,7 +12937,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27">
@@ -12975,7 +12975,7 @@
       <c r="AR14" s="28"/>
       <c r="AS14" s="28"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27">
@@ -13009,7 +13009,7 @@
       <c r="AR15" s="28"/>
       <c r="AS15" s="28"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27">
@@ -13035,7 +13035,7 @@
       <c r="AR16" s="28"/>
       <c r="AS16" s="28"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27">
@@ -13061,7 +13061,7 @@
       <c r="AR17" s="28"/>
       <c r="AS17" s="28"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27">
@@ -13087,7 +13087,7 @@
       <c r="AR18" s="28"/>
       <c r="AS18" s="28"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27">
@@ -13113,7 +13113,7 @@
       <c r="AR19" s="28"/>
       <c r="AS19" s="28"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27">
@@ -13139,7 +13139,7 @@
       <c r="AR20" s="28"/>
       <c r="AS20" s="28"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27">
@@ -13161,7 +13161,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27">
@@ -13183,7 +13183,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27">
@@ -13205,7 +13205,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27">
@@ -13227,7 +13227,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27">
@@ -13249,7 +13249,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
     </row>
-    <row r="50" spans="1:53" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:53" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>136</v>
       </c>
@@ -13361,12 +13361,12 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="44" width="12.54296875" customWidth="1"/>
+    <col min="4" max="44" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>75</v>
       </c>
@@ -13386,7 +13386,7 @@
       </c>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -13398,7 +13398,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20.392552617942201</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>7.4201574324111004</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>98.942940742330407</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>9.0969876631072601</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>199.54662465257201</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>3.4768285088688402</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>302.77768297853402</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>2.9100603500474902</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>400.23541850958202</v>
       </c>
@@ -13549,7 +13549,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>501.76235167262502</v>
       </c>
@@ -13568,7 +13568,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>600.21737059467102</v>
       </c>
@@ -13587,7 +13587,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -13597,7 +13597,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -13607,7 +13607,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -13617,7 +13617,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -13627,7 +13627,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -13637,7 +13637,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="59" t="s">
         <v>17</v>
       </c>
@@ -13656,7 +13656,7 @@
       <c r="O43" s="60"/>
       <c r="P43" s="60"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="70" t="s">
         <v>75</v>
       </c>
@@ -13703,31 +13703,31 @@
       <selection activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" style="1" customWidth="1"/>
-    <col min="4" max="13" width="10.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7265625" style="34" customWidth="1"/>
-    <col min="15" max="20" width="9.7265625" style="33" customWidth="1"/>
-    <col min="21" max="21" width="3.7265625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="12.54296875" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="34" customWidth="1"/>
+    <col min="15" max="20" width="9.7109375" style="33" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>123</v>
       </c>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="AG1" s="65"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
         <v>0</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>19.999999999999901</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>16.4218378870669</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>400.5</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>15.826264498836499</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>500</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>9.2231637852032193</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>600.49999999999898</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>9.1713760318161093</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>650.49999999999898</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>8.6275903969727903</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>700</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>2.7754320214427102</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
@@ -14586,7 +14586,7 @@
         <v>0.54850315111020298</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
@@ -14617,7 +14617,7 @@
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -14652,7 +14652,7 @@
       <c r="AF12" s="28"/>
       <c r="AG12" s="28"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="N13" s="38"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -14666,7 +14666,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="N14" s="38"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -14680,7 +14680,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="N15" s="38"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
@@ -14694,7 +14694,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="50" spans="1:33" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>137</v>
       </c>
@@ -14772,21 +14772,21 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="11" width="18" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2" customWidth="1"/>
     <col min="13" max="14" width="18" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="2"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>54</v>
       </c>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="N1" s="59"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-195.475113122171</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>13.2227855651655</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>-52.4886877828054</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>155.23173277661701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>-22.624434389140202</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>164.140769460184</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>-3.6199095022624301</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>170.56606024455701</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>20.814479638009001</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>195.45600954369201</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>200.90497737556501</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>180.121682075753</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>400</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>196.49865791828199</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G11" s="1">
         <v>22.743215031315199</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>267.01938562481303</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
         <v>39.774530271398703</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>267.12078735460699</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
         <v>59.986877423203097</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>269.22039964211098</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G14" s="1">
         <v>70.293468535639704</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>276.25171488219502</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M15" s="1">
         <v>60.0960334029227</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>300.66925141664098</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M16" s="1">
         <v>59.741723829406503</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>248.06203399940301</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <v>-80.320906650760506</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>14.116313748881501</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M18" s="1">
         <v>-70.226066209364703</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>14.662690128243399</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M19" s="1">
         <v>-60.384730092454497</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>20.6668654935878</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M20" s="1">
         <v>-50.168207575305701</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>170.593498359677</v>
       </c>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M21" s="1">
         <v>-40.341186996719301</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>182.55293766776001</v>
       </c>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M22" s="1">
         <v>-19.960035788845801</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>203.994035192365</v>
       </c>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M23" s="1">
         <v>-7.8735460781359706E-2</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>233.37309871756599</v>
       </c>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M24" s="1">
         <v>23.428571428571399</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>254.33343274679299</v>
       </c>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M25" s="1">
         <v>39.994631673128502</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>262.85237101103399</v>
       </c>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M26" s="1">
         <v>60.162839248434203</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>272.87801968386498</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>55</v>
       </c>
@@ -15276,13 +15276,13 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.453125" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="10"/>
+    <col min="1" max="26" width="12.42578125" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>6</v>
       </c>
@@ -15290,13 +15290,13 @@
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="45.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -15305,7 +15305,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>295.59585492227899</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>8.1640711902113403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>322.79792746113901</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>8.0789766407119004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>373.31606217616502</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>7.7536151279199106E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>472.79792746113901</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>7.5784204671857605E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>573.05699481865202</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>7.0728587319243599E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>673.31606217616502</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>6.4822024471635098E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>772.79792746114003</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>5.8014460511679598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>873.05699481865202</v>
       </c>
@@ -15369,13 +15369,13 @@
         <v>5.0255839822024397E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="59"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>5</v>
       </c>
@@ -15403,32 +15403,32 @@
       <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.26953125" style="2"/>
-    <col min="3" max="3" width="2.7265625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="7.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="2.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.7265625" style="22" customWidth="1"/>
-    <col min="16" max="17" width="9.26953125" style="2"/>
-    <col min="18" max="18" width="2.7265625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="6.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.7265625" style="19" customWidth="1"/>
-    <col min="22" max="22" width="6.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.26953125" style="2"/>
+    <col min="1" max="2" width="9.28515625" style="2"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="22" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" style="2"/>
+    <col min="18" max="18" width="2.7109375" style="22" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="19" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>175</v>
       </c>
@@ -15466,14 +15466,14 @@
       </c>
       <c r="W1" s="67"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2"/>
       <c r="P2" s="73"/>
       <c r="Q2" s="73"/>
     </row>
-    <row r="3" spans="1:23" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>134</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>-100.03009287123</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>5.75439507454933</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>-80.090267900399098</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>65.4643572435278</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>-69.979941656943694</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>102.824345374972</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>-69.979941656943694</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>171.30405756249499</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>-69.979941656943694</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>200.86232475335601</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>-60.010034528174003</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>215.57933387730799</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>-60.010034528174003</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>215.16393442622899</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>-60.010034528174003</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>-40.0702095573428</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>-40.0702095573428</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>-20.1303952998034</v>
       </c>
@@ -16099,7 +16099,7 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>-20.1303952998034</v>
       </c>
@@ -16138,7 +16138,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>-5.0161927578301402E-2</v>
       </c>
@@ -16167,7 +16167,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>24.944826164980501</v>
       </c>
@@ -16192,7 +16192,7 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="F18" s="14"/>
@@ -16210,7 +16210,7 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="F19" s="14"/>
@@ -16228,7 +16228,7 @@
       <c r="V19" s="29"/>
       <c r="W19" s="29"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="F20" s="14"/>
@@ -16246,7 +16246,7 @@
       <c r="V20" s="29"/>
       <c r="W20" s="29"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="F21" s="14"/>
@@ -16264,7 +16264,7 @@
       <c r="V21" s="29"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="F22" s="14"/>
@@ -16282,7 +16282,7 @@
       <c r="V22" s="29"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="F23" s="14"/>
@@ -16300,7 +16300,7 @@
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="F24" s="14"/>
@@ -16318,7 +16318,7 @@
       <c r="V24" s="29"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="F25" s="14"/>
@@ -16336,7 +16336,7 @@
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="F26" s="14"/>
@@ -16354,99 +16354,99 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
     </row>
-    <row r="50" spans="1:23" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>165</v>
       </c>
@@ -16507,36 +16507,36 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="53" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7265625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>176</v>
       </c>
@@ -16567,7 +16567,7 @@
       <c r="Y1" s="73"/>
       <c r="Z1" s="73"/>
     </row>
-    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>178</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>-129</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>-129</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>-129</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>-129</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>-129</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>-129</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>-129</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>-129</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>-129</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>-129</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>-129</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>-129</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>-129</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>-129</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>-129</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>-138</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>-138</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>-138</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>-138</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>-138</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>-138</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>-138</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>-138</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>-138</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>-138</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>-138</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>-138</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>-148</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>-148</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>-148</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>-148</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>-148</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>-100</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>-100</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>-100</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>-100</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>-100</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>-100</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>-100</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>-100</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>-100</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>-100</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>-100</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>-100</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>-100</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>-100</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>-100</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>-100</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>-100</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>-100</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>-100</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <v>-100</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>-100</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <v>-100</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>-100</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>-100</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>-100</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>-100</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>-100</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>-100</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>-100</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
         <v>-100</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <v>-100</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <v>-100</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>-100</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <v>-120</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>-120</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>-120</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>-120</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <v>-120</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <v>-120</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
         <v>-120</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <v>-120</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
         <v>-120</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <v>-120</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
         <v>-120</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <v>-120</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
         <v>-120</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
         <v>-120</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="33">
         <v>-120</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <v>-120</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="33">
         <v>-120</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
         <v>-120</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
         <v>-120</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
         <v>-120</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
         <v>-120</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
         <v>-120</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="33">
         <v>-120</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
         <v>-120</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="33">
         <v>-120</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
         <v>-120</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="33">
         <v>-120</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="71" t="s">
         <v>337</v>
       </c>
@@ -22179,26 +22179,26 @@
       <selection activeCell="M34" sqref="M34:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2"/>
-    <col min="4" max="4" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="2"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>35</v>
       </c>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="N1" s="59"/>
     </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>95.557891687808393</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>88.682804290936701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -22348,7 +22348,7 @@
         <v>81.200483429553103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>300</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>74.529005773187606</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1000</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>66.640813839669093</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3000</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>60.172496454184</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10000</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>52.487914261171703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>30000</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>45.612377394674198</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100000</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>37.927795201662001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>300000</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>30.849547533909899</v>
       </c>
     </row>
-    <row r="32" spans="13:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M32" s="59"/>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
@@ -22585,7 +22585,7 @@
       <c r="V32" s="59"/>
       <c r="W32" s="59"/>
     </row>
-    <row r="34" spans="1:23" ht="147" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
         <v>40</v>
       </c>
@@ -22634,29 +22634,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P52" sqref="P52:T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="8" width="13.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="11" width="14.453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="2"/>
-    <col min="13" max="14" width="14.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="2"/>
-    <col min="16" max="17" width="15.453125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="2"/>
-    <col min="19" max="20" width="15.453125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="11" width="14.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="14" width="14.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="17" width="15.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="20" width="15.42578125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>29</v>
       </c>
@@ -22686,7 +22686,7 @@
       </c>
       <c r="T1" s="59"/>
     </row>
-    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4.8638199999999996</v>
       </c>
@@ -22774,7 +22774,7 @@
         <v>1.81249999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>9.9451300000000007</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>1.61029411764705</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.994789999999998</v>
       </c>
@@ -22862,7 +22862,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>48.371310000000001</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>1.4117647058823499</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100.27548</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>1.41911764705882</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>252.01924</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>1.41911764705882</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>494.47662000000003</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>1.4117647058823499</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>50270.617209999997</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>1.40808823529411</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>98633.9179</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>1.2242647058823499</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>207303.64079999999</v>
       </c>
@@ -23158,7 +23158,7 @@
         <v>1.01838235294117</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>506872.17005999997</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>0.91911764705882304</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1000000</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>0.91544117647058798</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <v>1008287.14299</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P17">
         <v>1608.5055696074701</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P18">
         <v>1254.92984463937</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>0.81617647058823495</v>
       </c>
     </row>
-    <row r="19" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P19">
         <v>1352.9212213830299</v>
       </c>
@@ -23284,7 +23284,7 @@
         <v>0.81617647058823495</v>
       </c>
     </row>
-    <row r="20" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P20">
         <v>1472.54042762412</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="21" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P21">
         <v>1528.95166956412</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>0.81985294117647001</v>
       </c>
     </row>
-    <row r="22" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P22">
         <v>1663.9047110839299</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="23" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P23">
         <v>1551.94508748353</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>0.66176470588235303</v>
       </c>
     </row>
-    <row r="24" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P24">
         <v>2156.4207065729001</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>0.60294117647058798</v>
       </c>
     </row>
-    <row r="25" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>2273.3309522936602</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>0.39705882352941102</v>
       </c>
     </row>
-    <row r="26" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P26">
         <v>2450.8443254601498</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>0.51102941176470495</v>
       </c>
     </row>
-    <row r="27" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P27">
         <v>3099.5348132387398</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>0.51102941176470495</v>
       </c>
     </row>
-    <row r="28" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P28">
         <v>5296.0195526859297</v>
       </c>
@@ -23410,7 +23410,7 @@
         <v>0.51102941176470495</v>
       </c>
     </row>
-    <row r="29" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>5090.0575080803101</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>0.54411764705882304</v>
       </c>
     </row>
-    <row r="30" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>5324.6432593392001</v>
       </c>
@@ -23426,7 +23426,7 @@
         <v>0.49264705882352899</v>
       </c>
     </row>
-    <row r="31" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>7126.5797989979101</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0.496323529411764</v>
       </c>
     </row>
-    <row r="32" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>8205.51119349898</v>
       </c>
@@ -23442,7 +23442,7 @@
         <v>0.496323529411764</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P33">
         <v>12154.970287534299</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>0.44852941176470501</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P34">
         <v>25018.3868587463</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>0.40073529411764702</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
         <v>33</v>
       </c>
@@ -23477,7 +23477,7 @@
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
     </row>
-    <row r="52" spans="16:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="16:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P52" s="59" t="s">
         <v>47</v>
       </c>
@@ -23506,65 +23506,65 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889DF100-11A5-41DE-A915-81A8976D1E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2205885-23CC-4D2D-BFC6-1C71F505EC79}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
       <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" t="s">
         <v>343</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>344</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>345</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" t="s">
-        <v>341</v>
-      </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.120562431382003</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>0.49119572051747301</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.4049186683303201E-2</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>0.53587031239310201</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.6236524809987193E-2</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>0.51748394705378298</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M7">
         <v>0.16083895580105101</v>
       </c>
@@ -23681,7 +23681,7 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23695,13 +23695,13 @@
       <selection activeCell="D1" sqref="D1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.453125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="26" width="12.42578125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
@@ -23709,7 +23709,7 @@
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -23717,7 +23717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>296.10389610389598</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>448.39537869062798</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>322.72727272727201</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>461.48908857509599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>348.05194805194799</v>
       </c>
@@ -23741,7 +23741,7 @@
         <v>475.35301668806102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>373.376623376623</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>485.36585365853603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>398.05194805194799</v>
       </c>
@@ -23757,7 +23757,7 @@
         <v>496.14890885750901</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>423.376623376623</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>504.621309370988</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>447.402597402597</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>513.86392811296503</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>472.72727272727201</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>521.56611039794598</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>498.05194805194799</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>530.03851091142405</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>522.72727272727195</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>536.97047496790697</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>548.05194805194799</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>544.67265725288803</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>572.72727272727195</v>
       </c>
@@ -23813,7 +23813,7 @@
         <v>550.83440308087199</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>598.05194805194799</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>556.99614890885698</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>622.72727272727195</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>565.46854942233597</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>648.05194805194799</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>573.17073170731703</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>673.376623376623</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>583.95378690629002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>698.05194805194799</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>597.04749679075701</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>722.72727272727195</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>611.68164313221996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>747.40259740259705</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>628.62644415917805</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>773.376623376623</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>655.58408215661098</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>797.40259740259705</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>687.16302952503202</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>822.72727272727195</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>721.05263157894694</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>847.40259740259705</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>764.18485237483901</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>872.72727272727195</v>
       </c>
@@ -23909,10 +23909,10 @@
         <v>801.155327342747</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y36" s="7"/>
     </row>
-    <row r="47" spans="1:25" ht="285" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
         <v>8</v>
       </c>
@@ -23922,7 +23922,7 @@
       </c>
       <c r="E47" s="59"/>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
@@ -23930,82 +23930,82 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F51" s="2">
         <v>20.54795</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F52" s="2">
         <v>53.424660000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F53" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F54" s="2">
         <v>152.05479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F55" s="2">
         <v>201.36985999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F56" s="2">
         <v>250.68493000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F57" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F58" s="2">
         <v>349.31506999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F59" s="2">
         <v>398.63013999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="2">
         <v>450.68493000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F61" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F62" s="2">
         <v>549.31506999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F63" s="2">
         <v>598.63013999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F64" s="2">
         <v>647.94520999999997</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="2">
         <v>700</v>
       </c>
@@ -24034,13 +24034,13 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.453125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="26" width="12.42578125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
@@ -24048,7 +24048,7 @@
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>295.83333333333297</v>
       </c>
@@ -24064,7 +24064,7 @@
         <v>28.330097087378601</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>322.61904761904702</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>28.932038834951399</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>372.61904761904702</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>29.194174757281498</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>473.21428571428498</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>30.6699029126213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>572.61904761904702</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>30.194174757281498</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>672.61904761904702</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>29.330097087378601</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>772.61904761904702</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>29.446601941747499</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>872.61904761904702</v>
       </c>
@@ -24120,7 +24120,7 @@
         <v>31.174757281553301</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
         <v>9</v>
       </c>
@@ -24128,7 +24128,7 @@
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
     </row>
-    <row r="35" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -24136,73 +24136,73 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <v>20.54795</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <v>50.684930000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <v>102.73972999999999</v>
       </c>
       <c r="V39" s="7"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <v>152.05479</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
         <v>201.36985999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D42" s="2">
         <v>253.42465999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D43" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
         <v>352.05479000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
         <v>401.36986000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <v>450.68493000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
         <v>502.73973000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <v>552.05479000000003</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <v>601.36986000000002</v>
       </c>
@@ -24231,17 +24231,17 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="10"/>
-    <col min="4" max="4" width="16.453125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="10"/>
+    <col min="1" max="1" width="15.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="10"/>
+    <col min="4" max="4" width="16.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>6</v>
       </c>
@@ -24249,13 +24249,13 @@
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -24264,7 +24264,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>303.31797235022998</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>51.077844311377198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>327.64976958525301</v>
       </c>
@@ -24280,7 +24280,7 @@
         <v>54.550898203592801</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>344.23963133640501</v>
       </c>
@@ -24288,7 +24288,7 @@
         <v>56.467065868263397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>365.806451612903</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>59.101796407185603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>396.22119815668202</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>62.814371257485</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>423.31797235022998</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>66.407185628742496</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>450.41474654377799</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>69.281437125748496</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>467.00460829492999</v>
       </c>
@@ -24328,7 +24328,7 @@
         <v>71.437125748502893</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>497.41935483870901</v>
       </c>
@@ -24336,7 +24336,7 @@
         <v>75.508982035928099</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>523.41013824884703</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>77.425149700598794</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>545.52995391704997</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>81.137724550898199</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>577.05069124423903</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>84.730538922155603</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>601.935483870967</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>87.245508982035901</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>657.78801843317899</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>93.473053892215503</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>682.11981566820202</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>96.227544910179603</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>708.11059907834101</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>99.580838323353206</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>734.65437788018403</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>102.57485029940101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>763.41013824884703</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>105.808383233532</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>783.87096774193503</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>107.96407185628701</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>817.05069124423903</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>111.19760479041901</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>850.23041474654303</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>114.19161676646701</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>883.963133640553</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>117.425149700598</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>924.88479262672797</v>
       </c>
@@ -24448,82 +24448,82 @@
         <v>121.377245508982</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D37"/>
       <c r="E37"/>
       <c r="V37" s="12"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="53" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="59"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>5</v>
       </c>
@@ -24550,20 +24550,20 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="19"/>
-    <col min="2" max="2" width="20.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.54296875" style="2"/>
+    <col min="1" max="1" width="12.5703125" style="19"/>
+    <col min="2" max="2" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="61"/>
     </row>
-    <row r="3" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>103</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>373</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>473</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>573</v>
       </c>
@@ -24595,7 +24595,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>673</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>773</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>873</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>973</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>1073</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>1173</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>1273</v>
       </c>
@@ -24651,16 +24651,16 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="62"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>106</v>
       </c>
@@ -24685,12 +24685,12 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.453125" style="2"/>
+    <col min="1" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>89</v>
       </c>
@@ -24705,7 +24705,7 @@
       <c r="H1" s="59"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>473.100871731008</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>8.3535353535353393E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>573.22540473225399</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>0.10090909090909</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>672.97633872976303</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>0.12030303030303</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>772.72727272727195</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>0.14070707070707</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>872.851805728518</v>
       </c>
@@ -24825,11 +24825,11 @@
         <v>0.16292929292929201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -24844,7 +24844,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
         <v>20</v>
       </c>
@@ -24866,12 +24866,12 @@
       <c r="M33" s="64"/>
       <c r="N33" s="64"/>
     </row>
-    <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E35" s="7" t="s">
         <v>92</v>
       </c>
@@ -24902,13 +24902,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>93</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>374.76697420604501</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>83.230300780628596</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>412.10995015364199</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>81.215235235179406</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>474.554014292452</v>
       </c>
@@ -24973,7 +24973,7 @@
         <v>82.570938959143305</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>540.89825105148998</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>80.337481614620103</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>603.34231519030095</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>79.104579669049201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>668.56250994275695</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>77.867491299214905</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>732.68797393811303</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>75.439365226443698</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>793.45330287942204</v>
       </c>
@@ -25043,7 +25043,7 @@
         <v>76.5941205857645</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>858.12146910000195</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>76.1559415128621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="5">
         <v>920.80490844290102</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>74.721742333959497</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
         <v>979.91015480001397</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>70.899885850165106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="5">
         <v>1044.5743240320301</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>69.265784912685106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="5">
         <v>1108.68380007312</v>
       </c>
@@ -25089,7 +25089,7 @@
         <v>67.233624801493704</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D17" s="5">
         <v>1172.2532385480399</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>62.612161283390201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="5">
         <v>1232.4625419689</v>
       </c>
@@ -25105,18 +25105,18 @@
         <v>60.383239231819097</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="59"/>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -25142,26 +25142,26 @@
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="2"/>
-    <col min="13" max="16" width="12.7265625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="2.7265625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="16" width="12.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>94</v>
       </c>
@@ -25183,7 +25183,7 @@
       <c r="O1" s="59"/>
       <c r="P1" s="59"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -25196,7 +25196,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="33.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -25252,7 +25252,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>650</v>
       </c>
@@ -25282,7 +25282,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>700</v>
       </c>
@@ -25312,7 +25312,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>725</v>
       </c>
@@ -25342,7 +25342,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>775</v>
       </c>
@@ -25372,7 +25372,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>825</v>
       </c>
@@ -25402,7 +25402,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>850</v>
       </c>
@@ -25432,7 +25432,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>950</v>
       </c>
@@ -25462,7 +25462,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1000</v>
       </c>
@@ -25480,7 +25480,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1050</v>
       </c>
@@ -25498,7 +25498,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1100</v>
       </c>
@@ -25516,7 +25516,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1150</v>
       </c>
@@ -25534,13 +25534,13 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="36" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>65</v>
       </c>
@@ -25555,12 +25555,12 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M50" s="66" t="s">
         <v>109</v>
       </c>
